--- a/week_5/SQL Notes.xlsx
+++ b/week_5/SQL Notes.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/874c6ef6fea7ed8b/Desktop/Class/week_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{EB15A38B-3F16-4000-AC26-7BF361995B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24CCD52C-0722-4048-B6B9-81F600F103CD}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{EB15A38B-3F16-4000-AC26-7BF361995B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF7A52A-279B-4A17-877C-353388900133}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="3960" windowWidth="22035" windowHeight="15180" activeTab="5" xr2:uid="{239E2565-0F44-4DA5-9C54-2A051AB1DD05}"/>
+    <workbookView xWindow="23052" yWindow="-2940" windowWidth="23016" windowHeight="12360" activeTab="3" xr2:uid="{239E2565-0F44-4DA5-9C54-2A051AB1DD05}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Insert Statements" sheetId="2" r:id="rId2"/>
     <sheet name="queries" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Joins" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="Joins" sheetId="6" r:id="rId7"/>
+    <sheet name="Scalling and nosql" sheetId="7" r:id="rId8"/>
+    <sheet name="mysql commands" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="215">
   <si>
     <t>create table if not exists customer(</t>
   </si>
@@ -558,6 +583,198 @@
   </si>
   <si>
     <t xml:space="preserve"> and  ci.country_id = co.country_id</t>
+  </si>
+  <si>
+    <t>CREATE TABLE IF NOT EXISTS BANK(</t>
+  </si>
+  <si>
+    <t>customer_id INT NOT NULL,</t>
+  </si>
+  <si>
+    <t>account_number INT NOT NULL,</t>
+  </si>
+  <si>
+    <t>balance NUMERIC(10,2),</t>
+  </si>
+  <si>
+    <t>age INT,</t>
+  </si>
+  <si>
+    <t>CONSTRAINT aboce_zero CHECK (valance &gt;=0),</t>
+  </si>
+  <si>
+    <t>CONSTRAINT pri_key_bank PRIMARY KEY (customer_id, account_number)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * </t>
+  </si>
+  <si>
+    <t>FROM bank;</t>
+  </si>
+  <si>
+    <t>INSERT INTO bank</t>
+  </si>
+  <si>
+    <t>VALUES(1,00000,-27,97);</t>
+  </si>
+  <si>
+    <t>VALUE(</t>
+  </si>
+  <si>
+    <t>1,1,6000,25,'Ja','Strat');</t>
+  </si>
+  <si>
+    <t>CALL latefee(343,2.00)</t>
+  </si>
+  <si>
+    <t>Error Code: 1175. You are using safe update mode and you tried to update a table without a WHERE that uses a KEY column.  To disable safe mode, toggle the option in Preferences -&gt; SQL Editor and reconnect.</t>
+  </si>
+  <si>
+    <t>0.016 sec</t>
+  </si>
+  <si>
+    <t>ALTER TABLE table</t>
+  </si>
+  <si>
+    <t>ADD [COLUMN] column_name column_definition [FIRST|AFTER existing_column];</t>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t>I already have my bank table made up. BUT I forgot to add in any real customer details</t>
+  </si>
+  <si>
+    <t>I want to add in the first name and last name at least, so let's use the ALTER statement to do so</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>ALTER TABLE bank</t>
+  </si>
+  <si>
+    <t>ADD last_name INT;</t>
+  </si>
+  <si>
+    <t>MODIFY COLUMN last_name VARCHAR(255);</t>
+  </si>
+  <si>
+    <t>SELECT * FROM bank;</t>
+  </si>
+  <si>
+    <t>DROP CHECK above_zero;</t>
+  </si>
+  <si>
+    <t>DROP COLUMN first_name;</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE bank;</t>
+  </si>
+  <si>
+    <t>MODIFY COLUMN last_name VARCHAR(255)  AFTER account_number;</t>
+  </si>
+  <si>
+    <t>SELECT *</t>
+  </si>
+  <si>
+    <t>ALTER TABLE bank;</t>
+  </si>
+  <si>
+    <t>ADD COLUMN first_name VARCHAR(15) AFTER last_name;</t>
+  </si>
+  <si>
+    <t>UPDATE bank</t>
+  </si>
+  <si>
+    <t>SET balance = 100000.00</t>
+  </si>
+  <si>
+    <t>WHERE age = 25;</t>
+  </si>
+  <si>
+    <t>CREATE VIEW high_rollers AS</t>
+  </si>
+  <si>
+    <t>SELECT customer_id, CONCAT(first_name,' ',last_name) as full_name, balance</t>
+  </si>
+  <si>
+    <t>FROM bank</t>
+  </si>
+  <si>
+    <t>WHERE balance &gt; 100;</t>
+  </si>
+  <si>
+    <t>3,3,600000000.00,25,'Jay','Smith');</t>
+  </si>
+  <si>
+    <t>FROM high_rollers;</t>
+  </si>
+  <si>
+    <t>CALL latefee(343,2.00);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELIMITER // </t>
+  </si>
+  <si>
+    <t>CREATE PROCEDURE latefee(</t>
+  </si>
+  <si>
+    <t>IN customer INT,</t>
+  </si>
+  <si>
+    <t>IN late_fee_amount DECIMAL(10,2)</t>
+  </si>
+  <si>
+    <t>BEGIN</t>
+  </si>
+  <si>
+    <t>UPDATE payment</t>
+  </si>
+  <si>
+    <t>SET amount = amount + late_fee_amount</t>
+  </si>
+  <si>
+    <t>-- conditional to ensure we don't update all records</t>
+  </si>
+  <si>
+    <t>WHERE customer_id = customer;</t>
+  </si>
+  <si>
+    <t>COMMIT;</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END // </t>
+  </si>
+  <si>
+    <t>124,344123,</t>
+  </si>
+  <si>
+    <t>'stra',</t>
+  </si>
+  <si>
+    <t>'ja',</t>
+  </si>
+  <si>
+    <t>15550.02,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- DELIMITER // </t>
+  </si>
+  <si>
+    <t>CREATE PROCEDURE draftfee(</t>
+  </si>
+  <si>
+    <t>IN od_fee_amount DECIMAL(10,2)</t>
+  </si>
+  <si>
+    <t>SET balance = balance - od_fee_amount</t>
+  </si>
+  <si>
+    <t>WHERE balance &lt; 0.00,</t>
   </si>
 </sst>
 </file>
@@ -629,12 +846,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -650,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -673,6 +896,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -702,9 +928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>186690</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>63107</xdr:rowOff>
+      <xdr:rowOff>72632</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -735,6 +961,280 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>293370</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6734A420-E23C-A7D7-C0B8-85BCFD42CDFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="293370" y="7924800"/>
+          <a:ext cx="4575810" cy="7101840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-- Left, Right, Inner, Outer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-- Left/Right join returns all data that is in the corresponding side as well as any that match between it and the opposing side.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-- Inner returns all data that matches between both tables</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-- Outer returns all data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-- Merge together Actor and Film Actor tables</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-- Inner Join</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SELECT CONCAT(first_name, ' ' ,last_name) as full_name, title</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FROM film_actor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>INNER JOIN actor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ON actor.actor_id = film_actor.actor_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>INNER JOIN film</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ON film_actor.film_id = film.film_id;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-- Left hand join on the Actor and Film_Actor tables</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SELECT CONCAT(first_name, ' ', last_name) as full_name, film_id, actor.actor_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FROM film_actor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LEFT JOIN actor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ON actor.actor_id = film_actor.actor_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WHERE first_name IS NOT NULL OR last_name IS NOT NULL;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-- Right hand join:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SELECT CONCAT(first_name, ' ', last_name) as full_name, film_id, actor.actor_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FROM film_actor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>RIGHT JOIN actor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ON actor.actor_id = film_actor.actor_id;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-- Join to see any info on customers in the country of Brazil</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SELECT CONCAT(cu.first_name,' ', cu.last_name) as customer_full_name, cu.email, country</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FROM customer as cu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FULL JOIN address as ad</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ON cu.address_id = ad.address_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FULL JOIN city</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ON ad.city_id = city.city_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FULL JOIN country</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ON city.country_id = country.country_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WHERE country = 'Brazil';</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -875,6 +1375,181 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>524039</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>119047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0325417D-CE40-C9BB-2E6D-C6C073736036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13923809" cy="7742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419201</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>26669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Relational vs non-relational databases in a nutshell.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279DAEEB-0560-9ACB-C091-49C9D4D8A3E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8181974"/>
+          <a:ext cx="4076801" cy="5179695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53012</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Database management systems comparison">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040B044A-B7A5-927C-3DCC-CE7B83CD658E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4929812" y="8185785"/>
+          <a:ext cx="4560898" cy="5815964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1411,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41F5BC8-3244-40E3-8B8D-C2326DB9EE28}">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A52"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1677,7 +2352,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1903,6 +2578,505 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED80517-6DB6-4FC7-B4B6-4475CDDE27FD}">
+  <dimension ref="A2:D133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D133"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="12">
+        <v>0.60268518518518521</v>
+      </c>
+      <c r="B70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="e">
+        <f>-- take in two input variables, they go here.</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="e" cm="1">
+        <f t="array" ref="A84">-- This is where the procedure befings</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="e" cm="1">
+        <f t="array" ref="A86">-- Update payment table</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="e" cm="1">
+        <f t="array" ref="A88">-- set the amount column equal to the new late fee amount</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="e" cm="1">
+        <f t="array" ref="A93">-- Commit</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="e">
+        <f>-- take in two input variables, they go here.</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="e" cm="1">
+        <f t="array" ref="A121">-- This is where the procedure befings</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="e" cm="1">
+        <f t="array" ref="A123">-- Update bank table</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="e" cm="1">
+        <f t="array" ref="A125">-- set the amount column equal to the new late fee amount</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="e" cm="1">
+        <f t="array" ref="A130">-- Commit</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6EB1F3-B0EA-4857-9658-BB1F20BD8CB2}">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -1957,7 +3131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F59810-2148-48F5-9234-0DB3600F6C87}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1988,11 +3162,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768B2C3D-717A-416A-9533-6C23BCBEB7C6}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="L24" sqref="L24:P24"/>
     </sheetView>
   </sheetViews>
@@ -2192,4 +3366,601 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E243C4FE-23E2-44BE-8125-30AF8C637AF4}">
+  <dimension ref="A46:S61"/>
+  <sheetViews>
+    <sheetView topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="S59" sqref="S59:V59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="46" spans="1:1">
+      <c r="A46" s="10" t="e" cm="1">
+        <f t="array" ref="A46">-- Create a table in MySQL that features CHECK, CONSTRAINT, PRIMARY/FOREIGN KEY</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="S59" s="11"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFC8CA7-991F-4E7D-BC9C-7BB6D0347272}">
+  <dimension ref="A1:D136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D137"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="12">
+        <v>0.60268518518518521</v>
+      </c>
+      <c r="B73" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="e">
+        <f>-- take in two input variables, they go here.</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="e" cm="1">
+        <f t="array" ref="A87">-- This is where the procedure befings</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="e" cm="1">
+        <f t="array" ref="A89">-- Update payment table</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="e" cm="1">
+        <f t="array" ref="A91">-- set the amount column equal to the new late fee amount</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="e" cm="1">
+        <f t="array" ref="A96">-- Commit</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="e">
+        <f>-- take in two input variables, they go here.</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="e" cm="1">
+        <f t="array" ref="A124">-- This is where the procedure befings</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="e" cm="1">
+        <f t="array" ref="A126">-- Update bank table</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="e" cm="1">
+        <f t="array" ref="A128">-- set the amount column equal to the new late fee amount</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="e" cm="1">
+        <f t="array" ref="A133">-- Commit</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>